--- a/data/trans_dic/P78C4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C4_2023-Provincia-trans_dic.xlsx
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>40,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 78,93</t>
+          <t>1,13; 77,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,17; 100,0</t>
+          <t>36,44; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 80,28</t>
+          <t>14,75; 79,9</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,05</t>
+          <t>0,0; 82,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,68</t>
+          <t>0,0; 80,32</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>56,98%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,02; 76,72</t>
+          <t>13,25; 75,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>50,81; 93,8</t>
+          <t>50,76; 93,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>34,99; 79,08</t>
+          <t>32,45; 78,04</t>
         </is>
       </c>
     </row>
